--- a/UseCaseIScenarij/2)Scenarij prijema životinje.xlsx
+++ b/UseCaseIScenarij/2)Scenarij prijema životinje.xlsx
@@ -20,7 +20,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">Naziv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijem zivotinje(prvi pregled I registracija). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijem zivotinje u azil, unosenje podataka, pregled te
+eventualna eutanazija ukoliko se ustanovi da je neophodna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezani zahtjevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preduvjeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zivotinja je u azilu, postoji slobodan veterinar koji ce je
+ pregledati I unjeti podatke u sistem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posljedice -uspjesan zavrsetak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zivotinja je registrovana I smjestena u azil, spremna za udomljavanje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posljedice -neuspjesan zavrsetak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desila se greska pri unosu podataka 
+sistem ukazuje na problem te se unos ponavlja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primarni Akteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinar(uposlenik azila)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostali Akteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glavni Tok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podaci o zivotinji su uneseni u sistem, dodijeljen joj je boks te je spremna za udomljavanje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prosirenja/Alternative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zivotinja je eutanizirana.</t>
+  </si>
   <si>
     <t xml:space="preserve">2.1.Scenarij: Prijem životinje(prvi pregled + registracija)</t>
   </si>
@@ -31,7 +91,7 @@
     <t xml:space="preserve">Sistem za azil</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Pristupanje intergejsu za unos nove životinje</t>
+    <t xml:space="preserve">1.Pristupanje interfejsu za unos nove životinje</t>
   </si>
   <si>
     <t xml:space="preserve">2.Prikaz forme za registraciju nove životinje</t>
@@ -55,6 +115,12 @@
     <t xml:space="preserve">8. Unos životinje u bazu podataka</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternativni tok 1: Neuspjesna validacija pri registraciji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preduvjet: Na koraku 4. validacija nije prosla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2. Alternativni tok 1</t>
   </si>
   <si>
@@ -68,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">2.Nastavak na koraku 3. glavnog događaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternativni tok 2: Veterinar je ustanovio da je zivotinju potrebno eutanizirati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preduvjet: Eutanazija zivotinje je neophodna.</t>
   </si>
   <si>
     <t xml:space="preserve">2.3. Alternativni tok 2</t>
@@ -163,13 +235,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -189,107 +265,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>14</v>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
